--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.83218149631631</v>
+        <v>2.855746333333334</v>
       </c>
       <c r="H2">
-        <v>2.83218149631631</v>
+        <v>8.567239000000001</v>
       </c>
       <c r="I2">
-        <v>0.5263658983985418</v>
+        <v>0.5141941412552192</v>
       </c>
       <c r="J2">
-        <v>0.5263658983985418</v>
+        <v>0.5141941412552193</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.197013153439431</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N2">
-        <v>0.197013153439431</v>
+        <v>0.616916</v>
       </c>
       <c r="O2">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P2">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q2">
-        <v>0.5579770077020825</v>
+        <v>0.587251868324889</v>
       </c>
       <c r="R2">
-        <v>0.5579770077020825</v>
+        <v>5.285266814924</v>
       </c>
       <c r="S2">
-        <v>0.03406636276773695</v>
+        <v>0.002152628150496319</v>
       </c>
       <c r="T2">
-        <v>0.03406636276773695</v>
+        <v>0.002152628150496319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.83218149631631</v>
+        <v>2.855746333333334</v>
       </c>
       <c r="H3">
-        <v>2.83218149631631</v>
+        <v>8.567239000000001</v>
       </c>
       <c r="I3">
-        <v>0.5263658983985418</v>
+        <v>0.5141941412552192</v>
       </c>
       <c r="J3">
-        <v>0.5263658983985418</v>
+        <v>0.5141941412552193</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.84707482899371</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N3">
-        <v>2.84707482899371</v>
+        <v>8.924852</v>
       </c>
       <c r="O3">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P3">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q3">
-        <v>8.063432649303907</v>
+        <v>8.49570445818089</v>
       </c>
       <c r="R3">
-        <v>8.063432649303907</v>
+        <v>76.46134012362801</v>
       </c>
       <c r="S3">
-        <v>0.4922995356308048</v>
+        <v>0.03114182101649718</v>
       </c>
       <c r="T3">
-        <v>0.4922995356308048</v>
+        <v>0.03114182101649718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.08783915285493</v>
+        <v>2.855746333333334</v>
       </c>
       <c r="H4">
-        <v>2.08783915285493</v>
+        <v>8.567239000000001</v>
       </c>
       <c r="I4">
-        <v>0.3880285683786553</v>
+        <v>0.5141941412552192</v>
       </c>
       <c r="J4">
-        <v>0.3880285683786553</v>
+        <v>0.5141941412552193</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.197013153439431</v>
+        <v>45.939923</v>
       </c>
       <c r="N4">
-        <v>0.197013153439431</v>
+        <v>137.819769</v>
       </c>
       <c r="O4">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="P4">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="Q4">
-        <v>0.4113317753782599</v>
+        <v>131.1927666608657</v>
       </c>
       <c r="R4">
-        <v>0.4113317753782599</v>
+        <v>1180.734899947791</v>
       </c>
       <c r="S4">
-        <v>0.02511318080227197</v>
+        <v>0.4808996920882258</v>
       </c>
       <c r="T4">
-        <v>0.02511318080227197</v>
+        <v>0.4808996920882259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +711,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.08783915285493</v>
+        <v>2.156435666666667</v>
       </c>
       <c r="H5">
-        <v>2.08783915285493</v>
+        <v>6.469307000000001</v>
       </c>
       <c r="I5">
-        <v>0.3880285683786553</v>
+        <v>0.388279089375396</v>
       </c>
       <c r="J5">
-        <v>0.3880285683786553</v>
+        <v>0.3882790893753961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.84707482899371</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N5">
-        <v>2.84707482899371</v>
+        <v>0.616916</v>
       </c>
       <c r="O5">
-        <v>0.9352800725286664</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P5">
-        <v>0.9352800725286664</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q5">
-        <v>5.944234299080821</v>
+        <v>0.4434465552457778</v>
       </c>
       <c r="R5">
-        <v>5.944234299080821</v>
+        <v>3.991018997212</v>
       </c>
       <c r="S5">
-        <v>0.3629153875763833</v>
+        <v>0.001625495957612819</v>
       </c>
       <c r="T5">
-        <v>0.3629153875763833</v>
+        <v>0.001625495957612819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.460611920174852</v>
+        <v>2.156435666666667</v>
       </c>
       <c r="H6">
-        <v>0.460611920174852</v>
+        <v>6.469307000000001</v>
       </c>
       <c r="I6">
-        <v>0.08560553322280286</v>
+        <v>0.388279089375396</v>
       </c>
       <c r="J6">
-        <v>0.08560553322280286</v>
+        <v>0.3882790893753961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197013153439431</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N6">
-        <v>0.197013153439431</v>
+        <v>8.924852</v>
       </c>
       <c r="O6">
-        <v>0.06471992747133357</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P6">
-        <v>0.06471992747133357</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q6">
-        <v>0.09074660690543905</v>
+        <v>6.415289724173778</v>
       </c>
       <c r="R6">
-        <v>0.09074660690543905</v>
+        <v>57.737607517564</v>
       </c>
       <c r="S6">
-        <v>0.005540383901324637</v>
+        <v>0.02351586090860454</v>
       </c>
       <c r="T6">
-        <v>0.005540383901324637</v>
+        <v>0.02351586090860455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.156435666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.469307000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.388279089375396</v>
+      </c>
+      <c r="J7">
+        <v>0.3882790893753961</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>45.939923</v>
+      </c>
+      <c r="N7">
+        <v>137.819769</v>
+      </c>
+      <c r="O7">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P7">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q7">
+        <v>99.06648848112034</v>
+      </c>
+      <c r="R7">
+        <v>891.5983963300831</v>
+      </c>
+      <c r="S7">
+        <v>0.3631377325091787</v>
+      </c>
+      <c r="T7">
+        <v>0.3631377325091787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.03081333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.09243999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.005548124246053187</v>
+      </c>
+      <c r="J8">
+        <v>0.005548124246053188</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2056386666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.616916</v>
+      </c>
+      <c r="O8">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="P8">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="Q8">
+        <v>0.006336412782222221</v>
+      </c>
+      <c r="R8">
+        <v>0.05702771504</v>
+      </c>
+      <c r="S8">
+        <v>2.322672989884836E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.322672989884836E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.03081333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.09243999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.005548124246053187</v>
+      </c>
+      <c r="J9">
+        <v>0.005548124246053188</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.974950666666667</v>
+      </c>
+      <c r="N9">
+        <v>8.924852</v>
+      </c>
+      <c r="O9">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="P9">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="Q9">
+        <v>0.09166814654222222</v>
+      </c>
+      <c r="R9">
+        <v>0.82501331888</v>
+      </c>
+      <c r="S9">
+        <v>0.0003360183992491628</v>
+      </c>
+      <c r="T9">
+        <v>0.0003360183992491629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.03081333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.09243999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.005548124246053187</v>
+      </c>
+      <c r="J10">
+        <v>0.005548124246053188</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>45.939923</v>
+      </c>
+      <c r="N10">
+        <v>137.819769</v>
+      </c>
+      <c r="O10">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P10">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q10">
+        <v>1.415562160706667</v>
+      </c>
+      <c r="R10">
+        <v>12.74005944636</v>
+      </c>
+      <c r="S10">
+        <v>0.005188879116905177</v>
+      </c>
+      <c r="T10">
+        <v>0.005188879116905178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.460611920174852</v>
-      </c>
-      <c r="H7">
-        <v>0.460611920174852</v>
-      </c>
-      <c r="I7">
-        <v>0.08560553322280286</v>
-      </c>
-      <c r="J7">
-        <v>0.08560553322280286</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.84707482899371</v>
-      </c>
-      <c r="N7">
-        <v>2.84707482899371</v>
-      </c>
-      <c r="O7">
-        <v>0.9352800725286664</v>
-      </c>
-      <c r="P7">
-        <v>0.9352800725286664</v>
-      </c>
-      <c r="Q7">
-        <v>1.311396603864281</v>
-      </c>
-      <c r="R7">
-        <v>1.311396603864281</v>
-      </c>
-      <c r="S7">
-        <v>0.08006514932147822</v>
-      </c>
-      <c r="T7">
-        <v>0.08006514932147822</v>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5108336666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.532501</v>
+      </c>
+      <c r="I11">
+        <v>0.09197864512333143</v>
+      </c>
+      <c r="J11">
+        <v>0.09197864512333143</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2056386666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.616916</v>
+      </c>
+      <c r="O11">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="P11">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="Q11">
+        <v>0.1050471541017778</v>
+      </c>
+      <c r="R11">
+        <v>0.9454243869160001</v>
+      </c>
+      <c r="S11">
+        <v>0.0003850604370047059</v>
+      </c>
+      <c r="T11">
+        <v>0.0003850604370047059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5108336666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.532501</v>
+      </c>
+      <c r="I12">
+        <v>0.09197864512333143</v>
+      </c>
+      <c r="J12">
+        <v>0.09197864512333143</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.974950666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.924852</v>
+      </c>
+      <c r="O12">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="P12">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="Q12">
+        <v>1.519704957205778</v>
+      </c>
+      <c r="R12">
+        <v>13.677344614852</v>
+      </c>
+      <c r="S12">
+        <v>0.005570624544220483</v>
+      </c>
+      <c r="T12">
+        <v>0.005570624544220483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5108336666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.532501</v>
+      </c>
+      <c r="I13">
+        <v>0.09197864512333143</v>
+      </c>
+      <c r="J13">
+        <v>0.09197864512333143</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>45.939923</v>
+      </c>
+      <c r="N13">
+        <v>137.819769</v>
+      </c>
+      <c r="O13">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P13">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q13">
+        <v>23.46765931247434</v>
+      </c>
+      <c r="R13">
+        <v>211.208933812269</v>
+      </c>
+      <c r="S13">
+        <v>0.08602296014210625</v>
+      </c>
+      <c r="T13">
+        <v>0.08602296014210625</v>
       </c>
     </row>
   </sheetData>
